--- a/output/job2-Chart.xlsx
+++ b/output/job2-Chart.xlsx
@@ -173,11 +173,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -196,11 +197,19 @@
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -386,6 +395,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -701,11 +711,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="88572873"/>
-        <c:axId val="34949195"/>
+        <c:axId val="62513568"/>
+        <c:axId val="33971603"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88572873"/>
+        <c:axId val="62513568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,14 +788,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34949195"/>
+        <c:crossAx val="33971603"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34949195"/>
+        <c:axId val="33971603"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,7 +848,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -867,7 +877,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88572873"/>
+        <c:crossAx val="62513568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -956,6 +966,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1128,13 +1139,13 @@
                   <c:v>0.00181653042688465</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00435506596644037</c:v>
+                  <c:v>0.00409888561547329</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000696985537550096</c:v>
+                  <c:v>0.000662136260672591</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1146,10 +1157,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000936978362886208</c:v>
+                  <c:v>0.000897609524109477</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.000989948218093207</c:v>
+                  <c:v>0.000761498629302467</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1161,7 +1172,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00206913613566336</c:v>
+                  <c:v>0.00204664552549311</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5.47006053533659E-005</c:v>
@@ -1170,7 +1181,7 @@
                   <c:v>0.00512163892445583</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00192840785826202</c:v>
+                  <c:v>0.00180788236712065</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.000495540138751239</c:v>
@@ -1245,7 +1256,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0110098432373314</c:v>
+                  <c:v>0.00962449872402479</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.00019358835372464</c:v>
@@ -1257,7 +1268,7 @@
                   <c:v>0.00363342753330642</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.000983131728307766</c:v>
+                  <c:v>0.000945318969526698</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.00217443827011355</c:v>
@@ -1271,11 +1282,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="5572384"/>
-        <c:axId val="40312549"/>
+        <c:axId val="41157176"/>
+        <c:axId val="36984303"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="5572384"/>
+        <c:axId val="41157176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1348,14 +1359,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40312549"/>
+        <c:crossAx val="36984303"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40312549"/>
+        <c:axId val="36984303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1408,7 +1419,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1437,7 +1448,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5572384"/>
+        <c:crossAx val="41157176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1475,9 +1486,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169920</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1485,8 +1496,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6050880" y="66960"/>
-        <a:ext cx="12259800" cy="5833080"/>
+        <a:off x="5959800" y="66960"/>
+        <a:ext cx="12069360" cy="5832720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1505,9 +1516,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>377640</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1515,8 +1526,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6070680" y="6177240"/>
-        <a:ext cx="12447720" cy="4743000"/>
+        <a:off x="5979600" y="6177240"/>
+        <a:ext cx="12257280" cy="4742640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1536,16 +1547,16 @@
   </sheetPr>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.9183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.40816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,7 +1589,7 @@
         <v>7807</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.00435506596644037</v>
+        <v>0.00409888561547329</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,7 +1611,7 @@
         <v>28695</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.000696985537550096</v>
+        <v>0.000662136260672591</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,7 +1655,7 @@
         <v>127004</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.000936978362886208</v>
+        <v>0.000897609524109477</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1655,7 +1666,7 @@
         <v>13132</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.000989948218093207</v>
+        <v>0.000761498629302467</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1699,7 +1710,7 @@
         <v>44463</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.00206913613566336</v>
+        <v>0.00204664552549311</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,7 +1743,7 @@
         <v>8297</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.00192840785826202</v>
+        <v>0.00180788236712065</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2007,7 +2018,7 @@
         <v>13715</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0.0110098432373314</v>
+        <v>0.00962449872402479</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2051,7 +2062,7 @@
         <v>793383</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0.000983131728307766</v>
+        <v>0.000945318969526698</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/output/job2-Chart.xlsx
+++ b/output/job2-Chart.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\git\MW_Hadoop\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="job2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="job2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,160 +24,166 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
-  <si>
-    <t xml:space="preserve">Accelerator Defective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggressive Driving/Road Rage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcohol Involvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animals Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backing Unsafely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brakes Defective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell Phone (hand-held)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell Phone (hands-free)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driver Inattention/Distraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driver Inexperience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driverless/Runaway Vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drugs (Illegal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Failure to Keep Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Failure to Yield Right-of-Way</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatigued/Drowsy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fell Asleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Following Too Closely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Headlights Defective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lane Marking Improper/Inadequate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost Consciousness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obstruction/Debris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Electronic Device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Lighting Defects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Vehicular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outside Car Distraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oversized Vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passenger Distraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passing or Lane Usage Improper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pavement Defective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pavement Slippery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedestrian/Bicyclist/Other Pedestrian Error/Confusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical Disability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prescription Medication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction to Other Uninvolved Vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shoulders Defective/Improper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steering Failure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tire Failure/Inadequate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tow Hitch Defective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traffic Control Device Improper/Non-Working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traffic Control Disregarded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turning Improperly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unsafe Lane Changing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unsafe Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unspecified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View Obstructed/Limited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windshield Inadequate</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>Accelerator Defective</t>
+  </si>
+  <si>
+    <t>Aggressive Driving/Road Rage</t>
+  </si>
+  <si>
+    <t>Alcohol Involvement</t>
+  </si>
+  <si>
+    <t>Animals Action</t>
+  </si>
+  <si>
+    <t>Backing Unsafely</t>
+  </si>
+  <si>
+    <t>Brakes Defective</t>
+  </si>
+  <si>
+    <t>Cell Phone (hand-held)</t>
+  </si>
+  <si>
+    <t>Cell Phone (hands-free)</t>
+  </si>
+  <si>
+    <t>Driver Inattention/Distraction</t>
+  </si>
+  <si>
+    <t>Driver Inexperience</t>
+  </si>
+  <si>
+    <t>Driverless/Runaway Vehicle</t>
+  </si>
+  <si>
+    <t>Drugs (Illegal)</t>
+  </si>
+  <si>
+    <t>Failure to Keep Right</t>
+  </si>
+  <si>
+    <t>Failure to Yield Right-of-Way</t>
+  </si>
+  <si>
+    <t>Fatigued/Drowsy</t>
+  </si>
+  <si>
+    <t>Fell Asleep</t>
+  </si>
+  <si>
+    <t>Following Too Closely</t>
+  </si>
+  <si>
+    <t>Glare</t>
+  </si>
+  <si>
+    <t>Headlights Defective</t>
+  </si>
+  <si>
+    <t>Illness</t>
+  </si>
+  <si>
+    <t>Lane Marking Improper/Inadequate</t>
+  </si>
+  <si>
+    <t>Lost Consciousness</t>
+  </si>
+  <si>
+    <t>Obstruction/Debris</t>
+  </si>
+  <si>
+    <t>Other Electronic Device</t>
+  </si>
+  <si>
+    <t>Other Lighting Defects</t>
+  </si>
+  <si>
+    <t>Other Vehicular</t>
+  </si>
+  <si>
+    <t>Outside Car Distraction</t>
+  </si>
+  <si>
+    <t>Oversized Vehicle</t>
+  </si>
+  <si>
+    <t>Passenger Distraction</t>
+  </si>
+  <si>
+    <t>Passing or Lane Usage Improper</t>
+  </si>
+  <si>
+    <t>Pavement Defective</t>
+  </si>
+  <si>
+    <t>Pavement Slippery</t>
+  </si>
+  <si>
+    <t>Pedestrian/Bicyclist/Other Pedestrian Error/Confusion</t>
+  </si>
+  <si>
+    <t>Physical Disability</t>
+  </si>
+  <si>
+    <t>Prescription Medication</t>
+  </si>
+  <si>
+    <t>Reaction to Other Uninvolved Vehicle</t>
+  </si>
+  <si>
+    <t>Shoulders Defective/Improper</t>
+  </si>
+  <si>
+    <t>Steering Failure</t>
+  </si>
+  <si>
+    <t>Tire Failure/Inadequate</t>
+  </si>
+  <si>
+    <t>Tow Hitch Defective</t>
+  </si>
+  <si>
+    <t>Traffic Control Device Improper/Non-Working</t>
+  </si>
+  <si>
+    <t>Traffic Control Disregarded</t>
+  </si>
+  <si>
+    <t>Turning Improperly</t>
+  </si>
+  <si>
+    <t>Unsafe Lane Changing</t>
+  </si>
+  <si>
+    <t>Unsafe Speed</t>
+  </si>
+  <si>
+    <t>Unspecified</t>
+  </si>
+  <si>
+    <t>View Obstructed/Limited</t>
+  </si>
+  <si>
+    <t>Windshield Inadequate</t>
+  </si>
+  <si>
+    <t>Contribution Factor</t>
+  </si>
+  <si>
+    <t>Lethal Accidents</t>
+  </si>
+  <si>
+    <t>Average Deaths</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -181,37 +191,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,7 +207,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -231,45 +215,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -328,15 +285,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -345,26 +320,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="it-IT" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -374,10 +349,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -395,17 +372,30 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>job2!$A$1:$A$48</c:f>
+              <c:f>'job2'!$A$2:$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
@@ -544,20 +534,20 @@
                   <c:v>Unsafe Speed</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>View Obstructed/Limited</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Windshield Inadequate</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>Unspecified</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>View Obstructed/Limited</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>Windshield Inadequate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>job2!$B$1:$B$48</c:f>
+              <c:f>'job2'!$B$2:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -697,25 +687,32 @@
                   <c:v>2477</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>4139</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>793383</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4139</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="62513568"/>
-        <c:axId val="33971603"/>
+        <c:axId val="394334424"/>
+        <c:axId val="394334816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62513568"/>
+        <c:axId val="394334424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,26 +725,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="it-IT" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -757,6 +754,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -766,36 +764,39 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33971603"/>
+        <c:crossAx val="394334816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33971603"/>
+        <c:axId val="394334816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,7 +806,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -817,26 +818,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="it-IT" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -846,6 +847,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -855,29 +857,31 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62513568"/>
+        <c:crossAx val="394334424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -885,29 +889,37 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -916,26 +928,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="it-IT" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -945,10 +957,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -966,19 +980,32 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>job2!$A$1:$A$48</c:f>
+              <c:f>'job2'!$A$2:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>Accelerator Defective</c:v>
                 </c:pt>
@@ -1115,12 +1142,9 @@
                   <c:v>Unsafe Speed</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>Unspecified</c:v>
+                  <c:v>View Obstructed/Limited</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>View Obstructed/Limited</c:v>
-                </c:pt>
-                <c:pt idx="47">
                   <c:v>Windshield Inadequate</c:v>
                 </c:pt>
               </c:strCache>
@@ -1128,24 +1152,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>job2!$C$1:$C$48</c:f>
+              <c:f>'job2'!$C$2:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00181653042688465</c:v>
+                  <c:v>1.81653042688465E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00409888561547329</c:v>
+                  <c:v>4.0988856154732904E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000662136260672591</c:v>
+                  <c:v>6.6213626067259095E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1157,85 +1181,85 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000897609524109477</c:v>
+                  <c:v>8.9760952410947701E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.000761498629302467</c:v>
+                  <c:v>7.6149862930246701E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00527240773286468</c:v>
+                  <c:v>5.2724077328646802E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00204664552549311</c:v>
+                  <c:v>2.0466455254931101E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.47006053533659E-005</c:v>
+                  <c:v>5.4700605353365899E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00512163892445583</c:v>
+                  <c:v>5.12163892445583E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00180788236712065</c:v>
+                  <c:v>1.8078823671206501E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.000495540138751239</c:v>
+                  <c:v>4.9554013875123895E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00114329268292683</c:v>
+                  <c:v>1.1432926829268301E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.000400783754898468</c:v>
+                  <c:v>4.00783754898468E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00108225108225108</c:v>
+                  <c:v>1.0822510822510801E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.00120772946859903</c:v>
+                  <c:v>1.2077294685990301E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.000378721668705937</c:v>
+                  <c:v>3.7872166870593703E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.000433688958279122</c:v>
+                  <c:v>4.3368895827912201E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0107800862406899</c:v>
+                  <c:v>1.07800862406899E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.000983042516588843</c:v>
+                  <c:v>9.8304251658884304E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0037243947858473</c:v>
+                  <c:v>3.7243947858472998E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0006902672320284</c:v>
+                  <c:v>6.9026723202840002E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0077319587628866</c:v>
+                  <c:v>7.7319587628866E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0030929827952832</c:v>
+                  <c:v>3.0929827952832002E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.00050536245718457</c:v>
+                  <c:v>5.0536245718457002E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -1247,46 +1271,50 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.00114025085518814</c:v>
+                  <c:v>1.1402508551881399E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0111111111111111</c:v>
+                  <c:v>1.1111111111111099E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.00962449872402479</c:v>
+                  <c:v>9.6244987240247902E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.00019358835372464</c:v>
+                  <c:v>1.9358835372464001E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.00363342753330642</c:v>
+                  <c:v>3.6334275333064201E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.000945318969526698</c:v>
+                  <c:v>2.1744382701135499E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.00217443827011355</c:v>
-                </c:pt>
-                <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="41157176"/>
-        <c:axId val="36984303"/>
+        <c:axId val="394327760"/>
+        <c:axId val="394328152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41157176"/>
+        <c:axId val="394327760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,26 +1327,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="it-IT" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -1328,6 +1356,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1337,36 +1366,39 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36984303"/>
+        <c:crossAx val="394328152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36984303"/>
+        <c:axId val="394328152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1376,7 +1408,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1388,26 +1420,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="it-IT" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -1417,6 +1449,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1426,29 +1459,31 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41157176"/>
+        <c:crossAx val="394327760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1456,48 +1491,663 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1300" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>JOB2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'job2'!$A$2:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>Accelerator Defective</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Aggressive Driving/Road Rage</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alcohol Involvement</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Animals Action</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Backing Unsafely</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Brakes Defective</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cell Phone (hand-held)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Cell Phone (hands-free)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Driver Inattention/Distraction</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Driver Inexperience</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Driverless/Runaway Vehicle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Drugs (Illegal)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Failure to Keep Right</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Failure to Yield Right-of-Way</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Fatigued/Drowsy</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Fell Asleep</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Following Too Closely</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Glare</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Headlights Defective</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Illness</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Lane Marking Improper/Inadequate</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Lost Consciousness</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Obstruction/Debris</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Other Electronic Device</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Other Lighting Defects</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Other Vehicular</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Outside Car Distraction</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Oversized Vehicle</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Passenger Distraction</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Passing or Lane Usage Improper</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Pavement Defective</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Pavement Slippery</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Pedestrian/Bicyclist/Other Pedestrian Error/Confusion</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Physical Disability</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Prescription Medication</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Reaction to Other Uninvolved Vehicle</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Shoulders Defective/Improper</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Steering Failure</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Tire Failure/Inadequate</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Tow Hitch Defective</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Traffic Control Device Improper/Non-Working</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Traffic Control Disregarded</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Turning Improperly</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Unsafe Lane Changing</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Unsafe Speed</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>View Obstructed/Limited</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Windshield Inadequate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'job2'!$B$2:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7807</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28695</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2529</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13132</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44463</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54844</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1562</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2624</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22456</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2484</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34326</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11529</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6195</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5102</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4069</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10141</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10346</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17809</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2976</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>877</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13715</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25828</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3460</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2477</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4139</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="401565776"/>
+        <c:axId val="394332464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="401565776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="900" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Contributing factors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394332464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="394332464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="900" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t># of accidents</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401565776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>102240</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>169920</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5959800" y="66960"/>
-        <a:ext cx="12069360" cy="5832720"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1509,25 +2159,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>377640</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>398474</xdr:colOff>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5979600" y="6177240"/>
-        <a:ext cx="12257280" cy="4742640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1537,564 +2187,867 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>151024</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>147247</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
+    <col min="1" max="1" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="11.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B2">
         <v>431</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B3">
         <v>3303</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>0.00181653042688465</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C3">
+        <v>1.81653042688465E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B4">
         <v>7807</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>0.00409888561547329</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="C4">
+        <v>4.0988856154732904E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B5">
         <v>500</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B6">
         <v>28695</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0.000662136260672591</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C6">
+        <v>6.6213626067259095E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B7">
         <v>2529</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B8">
         <v>127</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C8">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B9">
         <v>231</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C9">
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B10">
         <v>127004</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0.000897609524109477</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="C10">
+        <v>8.9760952410947701E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B11">
         <v>13132</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>0.000761498629302467</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="C11">
+        <v>7.6149862930246701E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B12">
         <v>70</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C12">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B13">
         <v>569</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>0.00527240773286468</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="C13">
+        <v>5.2724077328646802E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B14">
         <v>2021</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C14">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B15">
         <v>44463</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>0.00204664552549311</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C15">
+        <v>2.0466455254931101E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B16">
         <v>54844</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>5.47006053533659E-005</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="C16">
+        <v>5.4700605353365899E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B17">
         <v>1562</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>0.00512163892445583</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="C17">
+        <v>5.12163892445583E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B18">
         <v>8297</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>0.00180788236712065</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="C18">
+        <v>1.8078823671206501E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B19">
         <v>2018</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>0.000495540138751239</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="C19">
+        <v>4.9554013875123895E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B20">
         <v>75</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C20">
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B21">
         <v>2624</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>0.00114329268292683</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C21">
+        <v>1.1432926829268301E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B22">
         <v>503</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C22">
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B23">
         <v>22456</v>
       </c>
-      <c r="C22" s="0" t="n">
-        <v>0.000400783754898468</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="C23">
+        <v>4.00783754898468E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B24">
         <v>1848</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <v>0.00108225108225108</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="C24">
+        <v>1.0822510822510801E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B25">
         <v>2484</v>
       </c>
-      <c r="C24" s="0" t="n">
-        <v>0.00120772946859903</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="C25">
+        <v>1.2077294685990301E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B26">
         <v>83</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C26">
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B27">
         <v>34326</v>
       </c>
-      <c r="C26" s="0" t="n">
-        <v>0.000378721668705937</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="C27">
+        <v>3.7872166870593703E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B28">
         <v>11529</v>
       </c>
-      <c r="C27" s="0" t="n">
-        <v>0.000433688958279122</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="C28">
+        <v>4.3368895827912201E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B29">
         <v>6195</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C29">
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B30">
         <v>5102</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>0.0107800862406899</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="C30">
+        <v>1.07800862406899E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B31">
         <v>4069</v>
       </c>
-      <c r="C30" s="0" t="n">
-        <v>0.000983042516588843</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="C31">
+        <v>9.8304251658884304E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B32">
         <v>1074</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <v>0.0037243947858473</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="C32">
+        <v>3.7243947858472998E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B33">
         <v>10141</v>
       </c>
-      <c r="C32" s="0" t="n">
-        <v>0.0006902672320284</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="C33">
+        <v>6.9026723202840002E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B34">
         <v>776</v>
       </c>
-      <c r="C33" s="0" t="n">
-        <v>0.0077319587628866</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="C34">
+        <v>7.7319587628866E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B35">
         <v>10346</v>
       </c>
-      <c r="C34" s="0" t="n">
-        <v>0.0030929827952832</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="C35">
+        <v>3.0929827952832002E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B36">
         <v>17809</v>
       </c>
-      <c r="C35" s="0" t="n">
-        <v>0.00050536245718457</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="C36">
+        <v>5.0536245718457002E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B37">
         <v>2976</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C37">
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B38">
         <v>46</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C38">
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B39">
         <v>861</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C39">
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B40">
         <v>877</v>
       </c>
-      <c r="C39" s="0" t="n">
-        <v>0.00114025085518814</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="C40">
+        <v>1.1402508551881399E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B41">
         <v>90</v>
       </c>
-      <c r="C40" s="0" t="n">
-        <v>0.0111111111111111</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="C41">
+        <v>1.1111111111111099E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B42">
         <v>441</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C42">
         <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B43">
         <v>13715</v>
       </c>
-      <c r="C42" s="0" t="n">
-        <v>0.00962449872402479</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="C43">
+        <v>9.6244987240247902E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B44">
         <v>25828</v>
       </c>
-      <c r="C43" s="0" t="n">
-        <v>0.00019358835372464</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="C44">
+        <v>1.9358835372464001E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B45">
         <v>3460</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C45">
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B46">
         <v>2477</v>
       </c>
-      <c r="C45" s="0" t="n">
-        <v>0.00363342753330642</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="C46">
+        <v>3.6334275333064201E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>4139</v>
+      </c>
+      <c r="C47">
+        <v>2.1744382701135499E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>51</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B49">
         <v>793383</v>
       </c>
-      <c r="C46" s="0" t="n">
-        <v>0.000945318969526698</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>4139</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>0.00217443827011355</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="C49">
+        <v>9.4531896952669797E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>